--- a/console/Elastic-Compute/Virtual-Machine/common/util/util.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/common/util/util.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,29 +16,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+  <si>
+    <t>checkDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please input description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description length cannot exceed 256 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description only supports Chinese, numbers, capital and lowercase letters and English underline “_”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getComputeStatusName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifying configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebuilding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creating Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>请输入描述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>创建中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>删除中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>停止中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>重启中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>启动中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>修改配置中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>重置系统中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>制作镜像中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>停止</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>checkPassword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不能少于8字符且不能超过30字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的密码不符合规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码必须包含大小写字母、数字及特殊字符其中三类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不允许有用户名</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>密码不能为空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password cannot be blank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>密码不能少于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符且不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password cannot be less than 8 characters and not more than 30 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>输入的密码不符合规则</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input password does not comply with the rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>密码必须包含大小写字母、数字及特殊字符其中三类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password must include three types of the capital and lowercase letters, numbers and special characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>密码不允许有用户名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password can't include the username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,15 +350,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称长度不能超过32个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称只支持中文、数字、大小写字母及英文下划线“_”及中划线</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称不能为空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Must provide a name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称长度不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name length cannot exceed 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称只支持中文、数字、大小写字母及英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>及中划线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,75 +438,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>checkNameForNet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>checkDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请输入描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述长度不能超过256个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述只支持中文、数字、大小写字母及英文下划线“_”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getComputeStatusName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重启中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改配置中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置系统中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作镜像中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述长度不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述只支持中文、数字、大小写字母及英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +511,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,8 +545,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -186,12 +558,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -233,7 +608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +643,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,225 +852,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
